--- a/files/test.xlsx
+++ b/files/test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>nom</t>
   </si>
@@ -96,6 +96,27 @@
   </si>
   <si>
     <t>hamza</t>
+  </si>
+  <si>
+    <t>jawhar</t>
+  </si>
+  <si>
+    <t>hassou</t>
+  </si>
+  <si>
+    <t>tesstttt</t>
+  </si>
+  <si>
+    <t>finaaaal</t>
+  </si>
+  <si>
+    <t>finaaal</t>
+  </si>
+  <si>
+    <t>testttt</t>
+  </si>
+  <si>
+    <t>testtttttt</t>
   </si>
 </sst>
 </file>
@@ -436,7 +457,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="C1" sqref="C1"/>
@@ -624,6 +645,39 @@
       </c>
       <c r="C17">
         <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/files/test.xlsx
+++ b/files/test.xlsx
@@ -457,7 +457,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="C1" sqref="C1"/>
@@ -678,6 +678,17 @@
       </c>
       <c r="C20" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
